--- a/data/trans_camb/P23_7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_7_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,38</t>
+          <t>-3,96; 5,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 7,25</t>
+          <t>-5,05; 4,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 14,48</t>
+          <t>-3,83; 7,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,23</t>
+          <t>-2,84; 9,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 7,58</t>
+          <t>-11,3; 5,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 15,51</t>
+          <t>-6,65; 3,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,11</t>
+          <t>-3,84; 7,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 5,8</t>
+          <t>-6,03; 4,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 11,98</t>
+          <t>-5,37; 3,43</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,71; -2,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 3,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 4,64</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 4,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 4,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 0,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>-13,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>137,38%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>119,89%</t>
+          <t>-27,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,27%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>126,56%</t>
+          <t>-24,38%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-70,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-7,86%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-47,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,63; 362,4</t>
+          <t>-71,83; 377,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 482,25</t>
+          <t>-100,0; 358,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,91; 787,2</t>
+          <t>-76,51; 538,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,27; 146,12</t>
+          <t>-60,53; 695,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 282,76</t>
+          <t>-78,46; 138,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 542,28</t>
+          <t>-77,89; 166,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 121,28</t>
+          <t>-48,31; 301,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 218,94</t>
+          <t>-73,04; 188,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 472,85</t>
+          <t>-81,39; 183,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-91,98; -11,2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-58,39; 131,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-49,25; 163,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-60,47; 166,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-52,4; 163,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-75,34; 17,69</t>
         </is>
       </c>
     </row>
@@ -848,7 +1016,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -858,37 +1026,67 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 9,89</t>
+          <t>-3,04; 11,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,97</t>
+          <t>-4,07; 3,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 12,49</t>
+          <t>-0,23; 23,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 2,85</t>
+          <t>-11,57; 12,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,58</t>
+          <t>-4,06; 13,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,01</t>
+          <t>-4,33; 3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,64</t>
+          <t>-3,87; 3,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,08</t>
+          <t>-2,0; 6,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,71</t>
+          <t>-4,61; 6,1</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 8,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 5,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 2,2</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 13,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 7,2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 9,34</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>154,63%</t>
+          <t>190,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>47,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-9,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>93,96%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-5,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>130,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>60,27%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,89; 697,28</t>
+          <t>-77,71; 997,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,73; 262,28</t>
+          <t>-78,24; 237,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 849,04</t>
+          <t>-24,48; 1505,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,07; 158,27</t>
+          <t>-67,08; 265,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,99; 199,75</t>
+          <t>-38,82; 284,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,55; 235,43</t>
+          <t>-77,37; 170,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 208,03</t>
+          <t>-67,53; 162,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 106,83</t>
+          <t>-46,9; 328,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 327,99</t>
+          <t>-56,6; 178,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,73; 562,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-56,82; 326,56</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-58,25; 103,49</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-9,84; 530,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-60,61; 136,84</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,96; 221,25</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 7,22</t>
+          <t>-3,64; 6,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,77</t>
+          <t>-3,35; 4,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,59</t>
+          <t>-2,53; 6,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,06</t>
+          <t>-1,71; 11,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,42</t>
+          <t>-6,83; 7,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,29</t>
+          <t>-6,93; -0,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,35</t>
+          <t>-5,35; 2,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,41</t>
+          <t>-3,97; 4,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,31</t>
+          <t>-5,24; 3,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 0,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 1,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 2,39</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 4,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 6,07</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,8</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>142,64%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-50,04%</t>
+          <t>61,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>-50,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>-22,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>-14,73%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-42,15%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-23,83%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-5,58%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-18,42%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 254,97</t>
+          <t>-55,67; 236,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 188,77</t>
+          <t>-47,61; 156,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 462,06</t>
+          <t>-36,58; 208,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,66; 6,38</t>
+          <t>-21,38; 229,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,48; 65,94</t>
+          <t>-48,68; 101,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 186,27</t>
+          <t>-80,97; -3,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 62,5</t>
+          <t>-62,79; 62,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 61,32</t>
+          <t>-50,43; 115,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,58; 222,74</t>
+          <t>-60,73; 76,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-73,43; 20,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-58,4; 44,31</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-40,77; 61,07</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-25,42; 97,57</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-21,9; 111,59</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-50,49; 35,61</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-6,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>-0,65</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 5,73</t>
+          <t>-7,16; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 3,7</t>
+          <t>-8,02; 3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 11,64</t>
+          <t>-7,47; 3,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,65</t>
+          <t>1,65; 12,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,48</t>
+          <t>-5,43; 8,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 14,24</t>
+          <t>-4,16; 5,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,96</t>
+          <t>-4,52; 4,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,35</t>
+          <t>-2,67; 7,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,06</t>
+          <t>-6,79; 4,07</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 0,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 3,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 2,52</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 4,23</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 7,33</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,17; 2,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>-13,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>114,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-6,27%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>-9,82%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-38,08%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-16,12%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 132,71</t>
+          <t>-64,13; 117,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 91,9</t>
+          <t>-63,22; 64,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 253,53</t>
+          <t>-65,49; 89,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 82,61</t>
+          <t>14,58; 274,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 71,86</t>
+          <t>-33,99; 90,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,57; 204,23</t>
+          <t>-34,55; 75,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 62,88</t>
+          <t>-37,66; 66,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 38,86</t>
+          <t>-23,66; 98,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,25; 160,0</t>
+          <t>-46,25; 46,16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-61,53; 1,49</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-37,87; 54,19</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-40,96; 40,01</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-31,64; 66,8</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 93,6</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-42,49; 18,69</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 9,36</t>
+          <t>-4,85; 7,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,22</t>
+          <t>-5,35; 3,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,23; 18,56</t>
+          <t>-6,47; 3,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 3,27</t>
+          <t>4,58; 16,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 4,81</t>
+          <t>-11,11; 5,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 10,14</t>
+          <t>-6,97; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,95</t>
+          <t>-5,9; 4,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,1</t>
+          <t>-3,39; 8,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,44; 12,2</t>
+          <t>-2,04; 12,28</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 10,12</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 3,21</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 2,55</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 4,33</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 12,49</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 5,74</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>166,06%</t>
+          <t>-21,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>181,91%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>-23,3%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>102,44%</t>
+          <t>45,12%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>29,62%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-6,46%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>90,23%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,79; 189,14</t>
+          <t>-51,28; 153,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 98,47</t>
+          <t>-54,6; 85,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>46,08; 375,67</t>
+          <t>-64,23; 71,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 63,37</t>
+          <t>49,6; 451,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 89,72</t>
+          <t>-47,68; 37,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 180,78</t>
+          <t>-60,95; 44,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 51,19</t>
+          <t>-50,18; 73,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 53,0</t>
+          <t>-34,72; 139,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>36,23; 205,21</t>
+          <t>-14,54; 164,3</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; 111,75</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-47,62; 54,44</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-42,06; 46,13</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-37,44; 73,78</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 193,17</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-27,34; 44,68</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 10,8</t>
+          <t>0,1; 11,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,46</t>
+          <t>-3,14; 6,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 9,65</t>
+          <t>-4,8; 5,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 1,05</t>
+          <t>-1,31; 12,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 3,08</t>
+          <t>-5,16; 9,71</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 11,64</t>
+          <t>-10,94; 0,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,97</t>
+          <t>-9,09; 3,67</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,2</t>
+          <t>-8,54; 6,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 8,85</t>
+          <t>-2,01; 14,09</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 12,09</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 4,05</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 3,26</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 4,46</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 11,41</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; 8,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>117,98%</t>
+          <t>125,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>69,74%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-37,67%</t>
+          <t>102,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-21,49%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>-41,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>56,43%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-8,31%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>72,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 422,98</t>
+          <t>-9,35; 417,71</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 283,19</t>
+          <t>-49,96; 242,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 421,78</t>
+          <t>-68,98; 205,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-71,15; 17,14</t>
+          <t>-28,22; 484,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-64,92; 52,97</t>
+          <t>-49,43; 208,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 171,28</t>
+          <t>-74,62; 14,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 69,04</t>
+          <t>-61,37; 57,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 57,83</t>
+          <t>-59,22; 93,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 147,71</t>
+          <t>-19,23; 214,6</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-41,47; 160,66</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-42,06; 74,19</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-46,57; 62,35</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-48,83; 78,06</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 195,74</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 114,75</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,51</t>
+          <t>-0,68; 3,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,03</t>
+          <t>-2,0; 1,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,77</t>
+          <t>-0,85; 4,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,05</t>
+          <t>1,94; 8,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,51</t>
+          <t>-2,59; 3,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,83</t>
+          <t>-3,93; -0,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,34</t>
+          <t>-2,8; 1,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,26</t>
+          <t>-1,12; 3,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,97</t>
+          <t>-0,71; 4,22</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 1,7</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 1,26</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 1,03</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 3,01</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 5,73</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 1,93</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>120,93%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>-25,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-10,39%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-2,59%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 82,47</t>
+          <t>-11,59; 87,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 48,93</t>
+          <t>-31,39; 41,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>59,6; 207,03</t>
+          <t>-15,32; 92,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 2,5</t>
+          <t>20,0; 156,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 23,77</t>
+          <t>-20,08; 38,5</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,87; 108,13</t>
+          <t>-45,23; -1,21</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 25,04</t>
+          <t>-32,14; 21,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 23,62</t>
+          <t>-13,51; 55,14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>45,65; 126,88</t>
+          <t>-7,57; 56,75</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-31,76; 16,64</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-24,96; 23,38</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-25,48; 17,52</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 54,21</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 85,51</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 19,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
